--- a/biology/Zoologie/Calamophylliopsis/Calamophylliopsis.xlsx
+++ b/biology/Zoologie/Calamophylliopsis/Calamophylliopsis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calamophylliopsis est un genre éteint de coraux durs de la famille également éteinte des Dermosmiliidae[1] (ordre des Scleractinia). Les espèces de ce genre ont vécu du Jurassique inférieur à l'Oligocène supérieur, il y a environ entre 189 et 23 Ma (millions d'années).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calamophylliopsis est un genre éteint de coraux durs de la famille également éteinte des Dermosmiliidae (ordre des Scleractinia). Les espèces de ce genre ont vécu du Jurassique inférieur à l'Oligocène supérieur, il y a environ entre 189 et 23 Ma (millions d'années).
 L'espèce Calamophylliopsis elegans provient de terrains crétacés de Chine.
 </t>
         </is>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (4 octobre 2023)[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (4 octobre 2023) :
 †Calamophylliopsis cervina (Étallon, 1860)
 †Calamophylliopsis compacta (Koby, 1884)
 †Calamophylliopsis crassitorquata (de Fromentel, 1861)
@@ -555,10 +569,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Calamophylliopsis a été créé en 1952 par le paléontologue français James Alloiteau (d) (1890-1969)[2].
-†Calamophylliopsis Alloiteau, 1952 a pour synonyme[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le genre Calamophylliopsis a été créé en 1952 par le paléontologue français James Alloiteau (d) (1890-1969).
+†Calamophylliopsis Alloiteau, 1952 a pour synonyme :
 † Cladophylliopsis Beauvais, 1972</t>
         </is>
       </c>
